--- a/etc/282.xlsx
+++ b/etc/282.xlsx
@@ -6426,10 +6426,10 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -10386,7 +10386,7 @@
       <c r="H5" t="s" s="32">
         <v>676</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -10516,7 +10516,7 @@
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="39">
+      <c r="G11" s="40">
         <v>435.57</v>
       </c>
       <c r="H11" s="37"/>
@@ -12230,7 +12230,7 @@
       <c r="H4" t="s" s="32">
         <v>985</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -12500,7 +12500,7 @@
       <c r="F16" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="40">
         <v>2487.72</v>
       </c>
       <c r="H16" t="s" s="38">
@@ -12523,7 +12523,7 @@
       <c r="F17" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="40">
         <v>12275.99</v>
       </c>
       <c r="H17" s="37"/>
@@ -16455,7 +16455,7 @@
       <c r="H12" t="s" s="32">
         <v>433</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -19034,7 +19034,7 @@
       <c r="H3" t="s" s="32">
         <v>433</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -19396,7 +19396,7 @@
       <c r="F19" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="40">
         <v>2486.84</v>
       </c>
       <c r="H19" t="s" s="38">
@@ -19419,7 +19419,7 @@
       <c r="F20" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="40">
         <v>12170.96</v>
       </c>
       <c r="H20" t="s" s="38">
@@ -23378,7 +23378,7 @@
       <c r="H8" t="s" s="32">
         <v>433</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -25849,7 +25849,7 @@
       <c r="H13" t="s" s="32">
         <v>433</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -31372,7 +31372,7 @@
       <c r="H31" t="s" s="32">
         <v>676</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -35831,7 +35831,7 @@
       <c r="F44" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G44" s="39">
+      <c r="G44" s="33">
         <v>2463.37</v>
       </c>
       <c r="H44" t="s" s="38">
@@ -35854,7 +35854,7 @@
       <c r="F45" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G45" s="39">
+      <c r="G45" s="33">
         <v>11959.99</v>
       </c>
       <c r="H45" t="s" s="38">
@@ -37480,7 +37480,7 @@
       <c r="H21" t="s" s="32">
         <v>676</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -41287,16 +41287,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.35156" style="40" customWidth="1"/>
-    <col min="2" max="2" width="11.3516" style="40" customWidth="1"/>
-    <col min="3" max="3" width="4.97656" style="40" customWidth="1"/>
-    <col min="4" max="4" width="5.0625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="3.57031" style="40" customWidth="1"/>
-    <col min="6" max="6" width="16" style="40" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="40" customWidth="1"/>
-    <col min="8" max="8" width="102.172" style="40" customWidth="1"/>
-    <col min="9" max="9" width="143.672" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="40" customWidth="1"/>
+    <col min="1" max="1" width="5.35156" style="39" customWidth="1"/>
+    <col min="2" max="2" width="11.3516" style="39" customWidth="1"/>
+    <col min="3" max="3" width="4.97656" style="39" customWidth="1"/>
+    <col min="4" max="4" width="5.0625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="3.57031" style="39" customWidth="1"/>
+    <col min="6" max="6" width="16" style="39" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="39" customWidth="1"/>
+    <col min="8" max="8" width="102.172" style="39" customWidth="1"/>
+    <col min="9" max="9" width="143.672" style="39" customWidth="1"/>
+    <col min="10" max="16384" width="16.3516" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -41496,7 +41496,7 @@
       <c r="H9" t="s" s="32">
         <v>433</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -45755,7 +45755,7 @@
       <c r="H3" t="s" s="32">
         <v>433</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -53095,7 +53095,7 @@
       <c r="H14" t="s" s="32">
         <v>676</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -54727,7 +54727,7 @@
       <c r="H5" t="s" s="32">
         <v>676</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="40">
         <v>3105</v>
       </c>
     </row>

--- a/etc/282.xlsx
+++ b/etc/282.xlsx
@@ -1037,375 +1037,378 @@
     <t>КварплатаЛ/с:0000003115ПоповОлегВалерьевич (кв.31)пр-д Марьиной Рощи 17-й дом 1 (м.м), м/м А/м 115 за октябрь 2022 года                         НДС не облагается</t>
   </si>
   <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>40817810381364067461 773113301047 МУРАВЬЕВА ТАТЬЯНА МИХАЙЛОВНА // 121433 РОССИЯ Г МОСКВА УЛ МАЛАЯ ФИЛЁВСКАЯ ДОМ 6 КОРП 1 КВ 35 //</t>
+  </si>
+  <si>
+    <t>КВАРПЛАТА ПО ЛС: 0000001057, НДС НЕ ОБЛАГАЕТСЯ, (ЛСИ0000001057,ПРД10.2022)</t>
+  </si>
+  <si>
+    <t>40817810209254004069 771876257106 ШУРЫГИН ДМИТРИЙ МИХАЙЛОВИЧ // 127521 РОССИЯ Г МОСКВА ПРОЕЗД 17-Й МАРЬИНОЙ РОЩИ ДОМ 1 КВ 127 //</t>
+  </si>
+  <si>
+    <t>КВАРПЛАТА ПО ЛС: 0000001127, НДС НЕ ОБЛАГАЕТСЯ, (ЛСИ0000001127,ПРД10.2022)</t>
+  </si>
+  <si>
+    <t>3131</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Иманакунов Канат Муратбекович//1504455365717//143981,РОССИЯ,МОСКОВСКАЯ ОБЛ,Г БАЛАШИХА,УЛ РЕЧНАЯ (МКР КУЧИНО),Д 12 КВ 70//</t>
+  </si>
+  <si>
+    <t>ЗА 04/11/2022,КВАРПЛАТА ПО ЛС:0000003131</t>
+  </si>
+  <si>
+    <t>3058</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Савинков Алексей Николаевич//1505368140653//117447,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ВИНОКУРОВА,Д 28 КОРП 3 КВ 67//</t>
+  </si>
+  <si>
+    <t>ЗА 07/11/2022,КВАРПЛАТА ПО ЛС:0000003058</t>
+  </si>
+  <si>
+    <t>3093</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Гимель Надежда Александровна//1504270499827//125008,РОССИЯ,МОСКВА Г,Г МОСКВА,Б-Р КОПТЕВСКИЙ,Д 12 КОРП 2 КВ 100//</t>
+  </si>
+  <si>
+    <t>ЗА 04/11/2022,КВАРПЛАТА ПО ЛС:0000003093</t>
+  </si>
+  <si>
+    <t>3034</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//БОБРОВСКИЙ НИКОЛАЙ ЭДУАРДОВИЧ//1505681915259//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,ПРОЕЗД 17-Й МАРЬИНОЙ РОЩИ,Д 1 КВ 30//</t>
+  </si>
+  <si>
+    <t>ЗА 07/11/2022,Коммунальные платежи</t>
+  </si>
+  <si>
+    <t>3035</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Бобровский Николай Эдуардович//1505687171704//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,ПРОЕЗД 17-Й МАРЬИНОЙ РОЩИ,Д 1 КВ 30//</t>
+  </si>
+  <si>
+    <t>3109</t>
+  </si>
+  <si>
+    <t>NAME_PARKING</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//ЛИПЕЦКИЙ ИВАН ВЛАДИМИРОВИЧ//1504815391063//111116,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ЭНЕРГЕТИЧЕСКАЯ,Д 11 КВ 109//</t>
+  </si>
+  <si>
+    <t>ЗА 05/11/2022,Оплата паркинга м/м 109</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//ЛИПЕЦКИЙ ИВАН ВЛАДИМИРОВИЧ//1504461589407//111116,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ЭНЕРГЕТИЧЕСКАЯ,Д 11 КВ 109//</t>
+  </si>
+  <si>
+    <t>ЗА 04/11/2022,Оплата паркинга м/м 109</t>
+  </si>
+  <si>
+    <t>3094</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Гимель Надежда Александровна//1504271251417//125008,РОССИЯ,МОСКВА Г,Г МОСКВА,Б-Р КОПТЕВСКИЙ,Д 12 КОРП 2 КВ 100//</t>
+  </si>
+  <si>
+    <t>ЗА 04/11/2022,КВАРПЛАТА ПО ЛС:0000003094</t>
+  </si>
+  <si>
+    <t>3140</t>
+  </si>
+  <si>
+    <t>40817810001005907444 222107342834 Баряев Владислав Александрович //127521, Москва г, г Москва Марьина роща , 17 по , д. 1, кв. 67//</t>
+  </si>
+  <si>
+    <t>Кварплата по ЛС: 0000003140 Л/с плательщика: 0000003140</t>
+  </si>
+  <si>
+    <t>3067</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Бобровский Николай Эдуардович//1505689091163//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,ПРОЕЗД 17-Й МАРЬИНОЙ РОЩИ,Д 1 КВ 30//</t>
+  </si>
+  <si>
+    <t>3068</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Бобровский Николай Эдуардович//1505691270376//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,ПРОЕЗД 17-Й МАРЬИНОЙ РОЩИ,Д 1 КВ 30//</t>
+  </si>
+  <si>
+    <t>3097</t>
+  </si>
+  <si>
+    <t>40817810700021788039 770201877170 ИВАННИКОВ ТАРАС ВАЛЕРЬЕВИЧ</t>
+  </si>
+  <si>
+    <t>ЛС 0000003097, Кварплата по ЛС: 0000003097,1022,пр-д Марьиной Рощи 17-й дом 1 (м.м), м/м А/м 97,Иванников Тарас Валерьевич. НДС не облагается</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Жуков Данил Юрьевич//1505085875708//125466,РОССИЯ,МОСКВА Г,Г МОСКВА,Ш НОВОКУРКИНСКОЕ,Д 51 КВ 723//</t>
+  </si>
+  <si>
+    <t>ЗА 06/11/2022,КВАРПЛАТА ПО ЛС:0000003005</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Жуков Данил Юрьевич//1505086192115//125466,РОССИЯ,МОСКВА Г,Г МОСКВА,Ш НОВОКУРКИНСКОЕ,Д 51 КВ 723//</t>
+  </si>
+  <si>
+    <t>ЗА 06/11/2022,КВАРПЛАТА ПО ЛС:0000003006</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Хромовичева Татьяна Константиновна//1504491770805//142455,РОССИЯ,МОСКОВСКАЯ ОБЛ,НОГИНСК Г,Г ЭЛЕКТРОУГЛИ,УЛ ШКОЛЬНАЯ,Д 55 КВ 78//</t>
+  </si>
+  <si>
+    <t>ЗА 04/11/2022,КВАРПЛАТА ПО ЛС:0000003027</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//БОБРОВСКИЙ НИКОЛАЙ ЭДУАРДОВИЧ//1505672932323//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,ПРОЕЗД 17-Й МАРЬИНОЙ РОЩИ,Д 1 КВ 30//</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Евдокимова Елена Николаевна//1505646610529//127572,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ УГЛИЧСКАЯ,Д 21 КВ 48//</t>
+  </si>
+  <si>
+    <t>ЗА 07/11/2022,КВАРПЛАТА ПО ЛС:0000001110</t>
+  </si>
+  <si>
+    <t>3110</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Хромовичева Татьяна Константиновна//1504405709835//142455,РОССИЯ,МОСКОВСКАЯ ОБЛ,НОГИНСК Г,Г ЭЛЕКТРОУГЛИ,УЛ ШКОЛЬНАЯ,Д 55 КВ 78//</t>
+  </si>
+  <si>
+    <t>ЗА 04/11/2022,КВАРПЛАТА ПО ЛС:0000003110</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Жуков Данил Юрьевич//1505085328172//125466,РОССИЯ,МОСКВА Г,Г МОСКВА,Ш НОВОКУРКИНСКОЕ,Д 51 КВ 723//</t>
+  </si>
+  <si>
+    <t>ЗА 06/11/2022,КВАРПЛАТА ПО ЛС:0000001023</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Есипенко Светлана Владимировна//1505622677683//433504,РОССИЯ,УЛЬЯНОВСКАЯ ОБЛ,Г ДИМИТРОВГРАД,УЛ СЕВАСТОПОЛЬСКАЯ,Д 6 КВ 2//</t>
+  </si>
+  <si>
+    <t>ЗА 07/11/2022,КВАРПЛАТА ПО ЛС:0000001092</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Галашева Елена Борисовна//1505250010352//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,ПРОЕЗД 17-Й МАРЬИНОЙ РОЩИ,Д 1 КВ 111//</t>
+  </si>
+  <si>
+    <t>ЗА 06/11/2022,КВАРПЛАТА ПО ЛС:0000001111</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Козлов Евгений Вячеславович//1506106947215//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ШЕРЕМЕТЬЕВСКАЯ,Д 25 КВ 123//</t>
+  </si>
+  <si>
+    <t>ЗА 07/11/2022,коммунальные услуги м/м 136</t>
+  </si>
+  <si>
+    <t>3038</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Козлов Евгений Вячеславович//1506104874527//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ШЕРЕМЕТЬЕВСКАЯ,Д 25 КВ 123//</t>
+  </si>
+  <si>
+    <t>ЗА 07/11/2022,коммунальные услуги м/м 38</t>
+  </si>
+  <si>
+    <t>1142</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Шаронов Алексей Вячеславович//1505249551570//129336,РОССИЯ,МОСКВА Г,Г МОСКВА,ПРОЕЗД АНАДЫРСКИЙ,Д 69 КВ 314//</t>
+  </si>
+  <si>
+    <t>ЗА 06/11/2022,КВАРПЛАТА ПО ЛС:0000001142</t>
+  </si>
+  <si>
+    <t>САРКИСЯН К., КВАРТИРА 46, НДС НЕ ОБЛАГАЕТСЯ, (ЛСИ0000001046,ПРД10.2022)</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Жуков Данил Юрьевич//1505085606984//125466,РОССИЯ,МОСКВА Г,Г МОСКВА,Ш НОВОКУРКИНСКОЕ,Д 51 КВ 723//</t>
+  </si>
+  <si>
+    <t>ЗА 06/11/2022,КВАРПЛАТА ПО ЛС:0000001082</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Фаингольд Валентина Анатольевна//1504469146844//141701,РОССИЯ,МОСКОВСКАЯ ОБЛ,Г ДОЛГОПРУДНЫЙ,УЛ ДИРИЖАБЕЛЬНАЯ,Д 9 КВ 97//</t>
+  </si>
+  <si>
+    <t>ЗА 04/11/2022,КВАРПЛАТА ПО ЛС:0000001074</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Атаева Валентина Александровна//1505168957218//125466,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ЮРОВСКАЯ,Д 33//</t>
+  </si>
+  <si>
+    <t>ЗА 06/11/2022,КВАРПЛАТА ПО ЛС:0000001086</t>
+  </si>
+  <si>
+    <t>3116</t>
+  </si>
+  <si>
+    <t>40802810600001649222 772200164902 ГАЛАНИНА ЕЛЕНА НИКОЛАЕВНА (ИП)</t>
+  </si>
+  <si>
+    <t>Оплата м/м 116 за август, сентябрь, октябрь.  Л/С 0000003116 Галанина Е.Н., адрес: Москва, пр-д Марьиной Рощи 17-й, дом 1, м/м 116 НДС не облагается</t>
+  </si>
+  <si>
+    <t>3144</t>
+  </si>
+  <si>
+    <t>Оплата м/м 144 за август, сентябрь, октябрь.  Л/С 0000003144 Галанина Е.Н., адрес: Москва, пр-д Марьиной Рощи 17-й, дом 1, м/м 144 НДС не облагается</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>40817810200071614954 772639704304 БЕССОНОВА ОЛЬГА ПАВЛОВНА</t>
+  </si>
+  <si>
+    <t>плата за ком платежи сент окт 2022г. НДС не облагается</t>
+  </si>
+  <si>
+    <t>1049</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Воробьева Наталья Александровна//1504596394662//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,ПРОЕЗД МАРЬИНОЙ РОЩИ 17-Й,Д 1 КВ 49//</t>
+  </si>
+  <si>
+    <t>ЗА 05/11/2022,КВАРПЛАТА ПО ЛС:0000001049</t>
+  </si>
+  <si>
+    <t>Кварплата по ЛС: 0000001067 Л/с плательщика: 0000001067</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>Оплата ЖКУ за август, сентябрь, октябрь.  Л/С 0000001010 Галанина Е.Н., адрес: Москва, пр-д Марьиной Рощи 17-й, дом 1, кв. 10 НДС не облагается</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Плотников Павел Владимирович//1504780588498//123103,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ПАРШИНА,Д 10 КВ 206//</t>
+  </si>
+  <si>
+    <t>ЗА 05/11/2022,КВАРПЛАТА ПО ЛС:0000001125</t>
+  </si>
+  <si>
+    <t>40817810552034007755 771873720654 МИТРОФАНОВА МАРИНА ВАСИЛЬЕВНА // 107143 РОССИЯ Г МОСКВА Ш ОТКРЫТОЕ ДОМ27 КОРП 8 КВ 54 //</t>
+  </si>
+  <si>
+    <t>КВАРПЛАТА ПО ЛС: 0000001025, НДС НЕ ОБЛАГАЕТСЯ, (ЛСИ0000001025,ПРД10.2022)</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>40817810937006011857 772347365559 САНАТУЛОВА АЛИЯ ШАМИЛЬЕВНА // 109390 РОССИЯ 77 Г МОСКВА Г МОСКВА, УЛ ЛЮБЛИНСКАЯ 23, 25 //</t>
+  </si>
+  <si>
+    <t>КОММУНАЛЬНЫЕ ПЛАТЕЖИ, НДС НЕ ОБЛАГАЕТСЯ, (ЛСИ0000001081,ПРД08.2022)</t>
+  </si>
+  <si>
+    <t>HARD_CODE</t>
+  </si>
+  <si>
+    <t>КВАРПЛАТА,ДОНСКИХ,ДЕНИС,ГЕННАДЬЕВИЧ,ПР-Д МАРЬИНОЙ РОЩИ 17-Й ДОМ 1 (М.М), М/М А/М 20</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>40817810304990011326 КОГАНЕЦ ОЛЬГА ВЛАДИМИРОВНА</t>
+  </si>
+  <si>
+    <t>ОПЛАТА ПО СЧЕТУ 0000001122 ЗА 05.2022</t>
+  </si>
+  <si>
+    <t>ОПЛАТА ПО СЧЕТУ 0000001122 ЗА 09.2022</t>
+  </si>
+  <si>
+    <t>ЛС 0000001097, Кварплата,0922,пр-д Марьиной Рощи 17-й дом 1, кв. 97,Богомолов Анатолий Викторович. НДС не облагается</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Тверетнев Петр Петрович//1481594762679//115580,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ШИПИЛОВСКАЯ,Д 55 КВ 81//</t>
+  </si>
+  <si>
+    <t>ЗА 30/09/2022,Оплата ЖКХ- 133 м/м.</t>
+  </si>
+  <si>
+    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Тверетнев Петр Петрович//1481594402714//115580,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ШИПИЛОВСКАЯ,Д 55 КВ 81//</t>
+  </si>
+  <si>
+    <t>3105</t>
+  </si>
+  <si>
+    <t>40817810197830000299 771576338347 БОЕВ РОМАН БОРИСОВИЧ</t>
+  </si>
+  <si>
+    <t>40817810400038360601 771617200213 ШАРОНОВ АЛЕКСЕЙ ВЯЧЕСЛАВОВИЧ</t>
+  </si>
+  <si>
+    <t>ЛС 0000001142, Кварплата,0922,пр-д Марьиной Рощи 17-й дом 1, кв. 142,Шаронов Алексей Вячеславович. НДС не облагается</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>40702810510000100195 7734401489 ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РОКОСКЛИНИК"</t>
+  </si>
+  <si>
+    <t>Оплата за коммунальные услуги по счету 000-020-048-641 на лицевой счет 0000002005 за коммунальные услуги по содержанию помещения за период 08.2022 НДС не облагается</t>
+  </si>
+  <si>
+    <t>40817810219257020496 772393737392 КОРОБКОВА АЛИНА СЕРГЕЕВНА // 109451 РОССИЯ 77 Г МОСКВА Г МОСКВА, Б-Р МЯЧКОВСКИЙ 9, 128 //</t>
+  </si>
+  <si>
+    <t>КВАРПЛАТА, НДС НЕ ОБЛАГАЕТСЯ, (ЛСИ0000001128,ПРД09.2022)</t>
+  </si>
+  <si>
     <t>3031</t>
   </si>
   <si>
-    <t>40817810381364067461 773113301047 МУРАВЬЕВА ТАТЬЯНА МИХАЙЛОВНА // 121433 РОССИЯ Г МОСКВА УЛ МАЛАЯ ФИЛЁВСКАЯ ДОМ 6 КОРП 1 КВ 35 //</t>
-  </si>
-  <si>
-    <t>КВАРПЛАТА ПО ЛС: 0000001057, НДС НЕ ОБЛАГАЕТСЯ, (ЛСИ0000001057,ПРД10.2022)</t>
-  </si>
-  <si>
-    <t>40817810209254004069 771876257106 ШУРЫГИН ДМИТРИЙ МИХАЙЛОВИЧ // 127521 РОССИЯ Г МОСКВА ПРОЕЗД 17-Й МАРЬИНОЙ РОЩИ ДОМ 1 КВ 127 //</t>
-  </si>
-  <si>
-    <t>КВАРПЛАТА ПО ЛС: 0000001127, НДС НЕ ОБЛАГАЕТСЯ, (ЛСИ0000001127,ПРД10.2022)</t>
-  </si>
-  <si>
-    <t>3131</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Иманакунов Канат Муратбекович//1504455365717//143981,РОССИЯ,МОСКОВСКАЯ ОБЛ,Г БАЛАШИХА,УЛ РЕЧНАЯ (МКР КУЧИНО),Д 12 КВ 70//</t>
-  </si>
-  <si>
-    <t>ЗА 04/11/2022,КВАРПЛАТА ПО ЛС:0000003131</t>
-  </si>
-  <si>
-    <t>3058</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Савинков Алексей Николаевич//1505368140653//117447,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ВИНОКУРОВА,Д 28 КОРП 3 КВ 67//</t>
-  </si>
-  <si>
-    <t>ЗА 07/11/2022,КВАРПЛАТА ПО ЛС:0000003058</t>
-  </si>
-  <si>
-    <t>3093</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Гимель Надежда Александровна//1504270499827//125008,РОССИЯ,МОСКВА Г,Г МОСКВА,Б-Р КОПТЕВСКИЙ,Д 12 КОРП 2 КВ 100//</t>
-  </si>
-  <si>
-    <t>ЗА 04/11/2022,КВАРПЛАТА ПО ЛС:0000003093</t>
-  </si>
-  <si>
-    <t>3034</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//БОБРОВСКИЙ НИКОЛАЙ ЭДУАРДОВИЧ//1505681915259//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,ПРОЕЗД 17-Й МАРЬИНОЙ РОЩИ,Д 1 КВ 30//</t>
-  </si>
-  <si>
-    <t>ЗА 07/11/2022,Коммунальные платежи</t>
-  </si>
-  <si>
-    <t>3035</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Бобровский Николай Эдуардович//1505687171704//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,ПРОЕЗД 17-Й МАРЬИНОЙ РОЩИ,Д 1 КВ 30//</t>
-  </si>
-  <si>
-    <t>3109</t>
-  </si>
-  <si>
-    <t>NAME_PARKING</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//ЛИПЕЦКИЙ ИВАН ВЛАДИМИРОВИЧ//1504815391063//111116,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ЭНЕРГЕТИЧЕСКАЯ,Д 11 КВ 109//</t>
-  </si>
-  <si>
-    <t>ЗА 05/11/2022,Оплата паркинга м/м 109</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//ЛИПЕЦКИЙ ИВАН ВЛАДИМИРОВИЧ//1504461589407//111116,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ЭНЕРГЕТИЧЕСКАЯ,Д 11 КВ 109//</t>
-  </si>
-  <si>
-    <t>ЗА 04/11/2022,Оплата паркинга м/м 109</t>
-  </si>
-  <si>
-    <t>3094</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Гимель Надежда Александровна//1504271251417//125008,РОССИЯ,МОСКВА Г,Г МОСКВА,Б-Р КОПТЕВСКИЙ,Д 12 КОРП 2 КВ 100//</t>
-  </si>
-  <si>
-    <t>ЗА 04/11/2022,КВАРПЛАТА ПО ЛС:0000003094</t>
-  </si>
-  <si>
-    <t>3140</t>
-  </si>
-  <si>
-    <t>40817810001005907444 222107342834 Баряев Владислав Александрович //127521, Москва г, г Москва Марьина роща , 17 по , д. 1, кв. 67//</t>
-  </si>
-  <si>
-    <t>Кварплата по ЛС: 0000003140 Л/с плательщика: 0000003140</t>
-  </si>
-  <si>
-    <t>3067</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Бобровский Николай Эдуардович//1505689091163//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,ПРОЕЗД 17-Й МАРЬИНОЙ РОЩИ,Д 1 КВ 30//</t>
-  </si>
-  <si>
-    <t>3068</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Бобровский Николай Эдуардович//1505691270376//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,ПРОЕЗД 17-Й МАРЬИНОЙ РОЩИ,Д 1 КВ 30//</t>
-  </si>
-  <si>
-    <t>3097</t>
-  </si>
-  <si>
-    <t>40817810700021788039 770201877170 ИВАННИКОВ ТАРАС ВАЛЕРЬЕВИЧ</t>
-  </si>
-  <si>
-    <t>ЛС 0000003097, Кварплата по ЛС: 0000003097,1022,пр-д Марьиной Рощи 17-й дом 1 (м.м), м/м А/м 97,Иванников Тарас Валерьевич. НДС не облагается</t>
-  </si>
-  <si>
-    <t>3005</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Жуков Данил Юрьевич//1505085875708//125466,РОССИЯ,МОСКВА Г,Г МОСКВА,Ш НОВОКУРКИНСКОЕ,Д 51 КВ 723//</t>
-  </si>
-  <si>
-    <t>ЗА 06/11/2022,КВАРПЛАТА ПО ЛС:0000003005</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Жуков Данил Юрьевич//1505086192115//125466,РОССИЯ,МОСКВА Г,Г МОСКВА,Ш НОВОКУРКИНСКОЕ,Д 51 КВ 723//</t>
-  </si>
-  <si>
-    <t>ЗА 06/11/2022,КВАРПЛАТА ПО ЛС:0000003006</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Хромовичева Татьяна Константиновна//1504491770805//142455,РОССИЯ,МОСКОВСКАЯ ОБЛ,НОГИНСК Г,Г ЭЛЕКТРОУГЛИ,УЛ ШКОЛЬНАЯ,Д 55 КВ 78//</t>
-  </si>
-  <si>
-    <t>ЗА 04/11/2022,КВАРПЛАТА ПО ЛС:0000003027</t>
-  </si>
-  <si>
-    <t>1030</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//БОБРОВСКИЙ НИКОЛАЙ ЭДУАРДОВИЧ//1505672932323//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,ПРОЕЗД 17-Й МАРЬИНОЙ РОЩИ,Д 1 КВ 30//</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Евдокимова Елена Николаевна//1505646610529//127572,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ УГЛИЧСКАЯ,Д 21 КВ 48//</t>
-  </si>
-  <si>
-    <t>ЗА 07/11/2022,КВАРПЛАТА ПО ЛС:0000001110</t>
-  </si>
-  <si>
-    <t>3110</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Хромовичева Татьяна Константиновна//1504405709835//142455,РОССИЯ,МОСКОВСКАЯ ОБЛ,НОГИНСК Г,Г ЭЛЕКТРОУГЛИ,УЛ ШКОЛЬНАЯ,Д 55 КВ 78//</t>
-  </si>
-  <si>
-    <t>ЗА 04/11/2022,КВАРПЛАТА ПО ЛС:0000003110</t>
-  </si>
-  <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Жуков Данил Юрьевич//1505085328172//125466,РОССИЯ,МОСКВА Г,Г МОСКВА,Ш НОВОКУРКИНСКОЕ,Д 51 КВ 723//</t>
-  </si>
-  <si>
-    <t>ЗА 06/11/2022,КВАРПЛАТА ПО ЛС:0000001023</t>
-  </si>
-  <si>
-    <t>1092</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Есипенко Светлана Владимировна//1505622677683//433504,РОССИЯ,УЛЬЯНОВСКАЯ ОБЛ,Г ДИМИТРОВГРАД,УЛ СЕВАСТОПОЛЬСКАЯ,Д 6 КВ 2//</t>
-  </si>
-  <si>
-    <t>ЗА 07/11/2022,КВАРПЛАТА ПО ЛС:0000001092</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Галашева Елена Борисовна//1505250010352//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,ПРОЕЗД 17-Й МАРЬИНОЙ РОЩИ,Д 1 КВ 111//</t>
-  </si>
-  <si>
-    <t>ЗА 06/11/2022,КВАРПЛАТА ПО ЛС:0000001111</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Козлов Евгений Вячеславович//1506106947215//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ШЕРЕМЕТЬЕВСКАЯ,Д 25 КВ 123//</t>
-  </si>
-  <si>
-    <t>ЗА 07/11/2022,коммунальные услуги м/м 136</t>
-  </si>
-  <si>
-    <t>3038</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Козлов Евгений Вячеславович//1506104874527//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ШЕРЕМЕТЬЕВСКАЯ,Д 25 КВ 123//</t>
-  </si>
-  <si>
-    <t>ЗА 07/11/2022,коммунальные услуги м/м 38</t>
-  </si>
-  <si>
-    <t>1142</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Шаронов Алексей Вячеславович//1505249551570//129336,РОССИЯ,МОСКВА Г,Г МОСКВА,ПРОЕЗД АНАДЫРСКИЙ,Д 69 КВ 314//</t>
-  </si>
-  <si>
-    <t>ЗА 06/11/2022,КВАРПЛАТА ПО ЛС:0000001142</t>
-  </si>
-  <si>
-    <t>САРКИСЯН К., КВАРТИРА 46, НДС НЕ ОБЛАГАЕТСЯ, (ЛСИ0000001046,ПРД10.2022)</t>
-  </si>
-  <si>
-    <t>1082</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Жуков Данил Юрьевич//1505085606984//125466,РОССИЯ,МОСКВА Г,Г МОСКВА,Ш НОВОКУРКИНСКОЕ,Д 51 КВ 723//</t>
-  </si>
-  <si>
-    <t>ЗА 06/11/2022,КВАРПЛАТА ПО ЛС:0000001082</t>
-  </si>
-  <si>
-    <t>1074</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Фаингольд Валентина Анатольевна//1504469146844//141701,РОССИЯ,МОСКОВСКАЯ ОБЛ,Г ДОЛГОПРУДНЫЙ,УЛ ДИРИЖАБЕЛЬНАЯ,Д 9 КВ 97//</t>
-  </si>
-  <si>
-    <t>ЗА 04/11/2022,КВАРПЛАТА ПО ЛС:0000001074</t>
-  </si>
-  <si>
-    <t>1086</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Атаева Валентина Александровна//1505168957218//125466,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ЮРОВСКАЯ,Д 33//</t>
-  </si>
-  <si>
-    <t>ЗА 06/11/2022,КВАРПЛАТА ПО ЛС:0000001086</t>
-  </si>
-  <si>
-    <t>3116</t>
-  </si>
-  <si>
-    <t>40802810600001649222 772200164902 ГАЛАНИНА ЕЛЕНА НИКОЛАЕВНА (ИП)</t>
-  </si>
-  <si>
-    <t>Оплата м/м 116 за август, сентябрь, октябрь.  Л/С 0000003116 Галанина Е.Н., адрес: Москва, пр-д Марьиной Рощи 17-й, дом 1, м/м 116 НДС не облагается</t>
-  </si>
-  <si>
-    <t>3144</t>
-  </si>
-  <si>
-    <t>Оплата м/м 144 за август, сентябрь, октябрь.  Л/С 0000003144 Галанина Е.Н., адрес: Москва, пр-д Марьиной Рощи 17-й, дом 1, м/м 144 НДС не облагается</t>
-  </si>
-  <si>
-    <t>1021</t>
-  </si>
-  <si>
-    <t>40817810200071614954 772639704304 БЕССОНОВА ОЛЬГА ПАВЛОВНА</t>
-  </si>
-  <si>
-    <t>плата за ком платежи сент окт 2022г. НДС не облагается</t>
-  </si>
-  <si>
-    <t>1049</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Воробьева Наталья Александровна//1504596394662//127521,РОССИЯ,МОСКВА Г,Г МОСКВА,ПРОЕЗД МАРЬИНОЙ РОЩИ 17-Й,Д 1 КВ 49//</t>
-  </si>
-  <si>
-    <t>ЗА 05/11/2022,КВАРПЛАТА ПО ЛС:0000001049</t>
-  </si>
-  <si>
-    <t>Кварплата по ЛС: 0000001067 Л/с плательщика: 0000001067</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>Оплата ЖКУ за август, сентябрь, октябрь.  Л/С 0000001010 Галанина Е.Н., адрес: Москва, пр-д Марьиной Рощи 17-й, дом 1, кв. 10 НДС не облагается</t>
-  </si>
-  <si>
-    <t>1125</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Плотников Павел Владимирович//1504780588498//123103,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ПАРШИНА,Д 10 КВ 206//</t>
-  </si>
-  <si>
-    <t>ЗА 05/11/2022,КВАРПЛАТА ПО ЛС:0000001125</t>
-  </si>
-  <si>
-    <t>40817810552034007755 771873720654 МИТРОФАНОВА МАРИНА ВАСИЛЬЕВНА // 107143 РОССИЯ Г МОСКВА Ш ОТКРЫТОЕ ДОМ27 КОРП 8 КВ 54 //</t>
-  </si>
-  <si>
-    <t>КВАРПЛАТА ПО ЛС: 0000001025, НДС НЕ ОБЛАГАЕТСЯ, (ЛСИ0000001025,ПРД10.2022)</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>1081</t>
-  </si>
-  <si>
-    <t>40817810937006011857 772347365559 САНАТУЛОВА АЛИЯ ШАМИЛЬЕВНА // 109390 РОССИЯ 77 Г МОСКВА Г МОСКВА, УЛ ЛЮБЛИНСКАЯ 23, 25 //</t>
-  </si>
-  <si>
-    <t>КОММУНАЛЬНЫЕ ПЛАТЕЖИ, НДС НЕ ОБЛАГАЕТСЯ, (ЛСИ0000001081,ПРД08.2022)</t>
-  </si>
-  <si>
-    <t>HARD_CODE</t>
-  </si>
-  <si>
-    <t>КВАРПЛАТА,ДОНСКИХ,ДЕНИС,ГЕННАДЬЕВИЧ,ПР-Д МАРЬИНОЙ РОЩИ 17-Й ДОМ 1 (М.М), М/М А/М 20</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>40817810304990011326 КОГАНЕЦ ОЛЬГА ВЛАДИМИРОВНА</t>
-  </si>
-  <si>
-    <t>ОПЛАТА ПО СЧЕТУ 0000001122 ЗА 05.2022</t>
-  </si>
-  <si>
-    <t>ОПЛАТА ПО СЧЕТУ 0000001122 ЗА 09.2022</t>
-  </si>
-  <si>
-    <t>ЛС 0000001097, Кварплата,0922,пр-д Марьиной Рощи 17-й дом 1, кв. 97,Богомолов Анатолий Викторович. НДС не облагается</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Тверетнев Петр Петрович//1481594762679//115580,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ШИПИЛОВСКАЯ,Д 55 КВ 81//</t>
-  </si>
-  <si>
-    <t>ЗА 30/09/2022,Оплата ЖКХ- 133 м/м.</t>
-  </si>
-  <si>
-    <t>30233810642000600001 7707083893 ПАО СБЕРБАНК//Тверетнев Петр Петрович//1481594402714//115580,РОССИЯ,МОСКВА Г,Г МОСКВА,УЛ ШИПИЛОВСКАЯ,Д 55 КВ 81//</t>
-  </si>
-  <si>
-    <t>3105</t>
-  </si>
-  <si>
-    <t>40817810197830000299 771576338347 БОЕВ РОМАН БОРИСОВИЧ</t>
-  </si>
-  <si>
-    <t>40817810400038360601 771617200213 ШАРОНОВ АЛЕКСЕЙ ВЯЧЕСЛАВОВИЧ</t>
-  </si>
-  <si>
-    <t>ЛС 0000001142, Кварплата,0922,пр-д Марьиной Рощи 17-й дом 1, кв. 142,Шаронов Алексей Вячеславович. НДС не облагается</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>40702810510000100195 7734401489 ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РОКОСКЛИНИК"</t>
-  </si>
-  <si>
-    <t>Оплата за коммунальные услуги по счету 000-020-048-641 на лицевой счет 0000002005 за коммунальные услуги по содержанию помещения за период 08.2022 НДС не облагается</t>
-  </si>
-  <si>
-    <t>40817810219257020496 772393737392 КОРОБКОВА АЛИНА СЕРГЕЕВНА // 109451 РОССИЯ 77 Г МОСКВА Г МОСКВА, Б-Р МЯЧКОВСКИЙ 9, 128 //</t>
-  </si>
-  <si>
-    <t>КВАРПЛАТА, НДС НЕ ОБЛАГАЕТСЯ, (ЛСИ0000001128,ПРД09.2022)</t>
-  </si>
-  <si>
     <t>40817810900047558470 503802369401 ДАВЫДОВ ВЯЧЕСЛАВ ВЛАДИМИРОВИЧ</t>
   </si>
   <si>
@@ -1476,9 +1479,6 @@
   </si>
   <si>
     <t>КварплатаЛ/с:0000003115ПоповОлегВалерьевич (кв.31)пр-д Марьиной Рощи 17-й дом 1 (м.м), м/м А/м 115 за сентябрь 2022 года                        НДС не облагается</t>
-  </si>
-  <si>
-    <t>1031</t>
   </si>
   <si>
     <t>1028</t>
@@ -9554,7 +9554,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="29">
-        <v>318</v>
+        <v>441</v>
       </c>
       <c r="B5" s="30">
         <v>44735</v>
@@ -9569,7 +9569,7 @@
         <v>1994.23</v>
       </c>
       <c r="H5" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I5" t="s" s="32">
         <v>868</v>
@@ -9600,7 +9600,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="29">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B7" s="30">
         <v>44735</v>
@@ -9615,7 +9615,7 @@
         <v>1994.23</v>
       </c>
       <c r="H7" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I7" t="s" s="32">
         <v>870</v>
@@ -9623,7 +9623,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="29">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B8" s="30">
         <v>44735</v>
@@ -9638,7 +9638,7 @@
         <v>2157.69</v>
       </c>
       <c r="H8" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I8" t="s" s="32">
         <v>871</v>
@@ -9821,7 +9821,7 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" t="s" s="27">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G2" s="28">
         <v>6443.49</v>
@@ -10080,7 +10080,7 @@
         <v>5000</v>
       </c>
       <c r="H13" t="s" s="32">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I13" t="s" s="32">
         <v>889</v>
@@ -10103,7 +10103,7 @@
         <v>5000</v>
       </c>
       <c r="H14" t="s" s="32">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I14" t="s" s="32">
         <v>890</v>
@@ -10484,7 +10484,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="35">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B10" s="36">
         <v>44712</v>
@@ -10585,7 +10585,7 @@
         <v>2435.57</v>
       </c>
       <c r="H14" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I14" t="s" s="32">
         <v>907</v>
@@ -10608,7 +10608,7 @@
         <v>2435.57</v>
       </c>
       <c r="H15" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I15" t="s" s="32">
         <v>908</v>
@@ -10631,7 +10631,7 @@
         <v>2435.57</v>
       </c>
       <c r="H16" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I16" t="s" s="32">
         <v>909</v>
@@ -11453,7 +11453,7 @@
       <c r="D52" s="31"/>
       <c r="E52" s="31"/>
       <c r="F52" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G52" s="51">
         <v>2451.92</v>
@@ -11748,7 +11748,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="29">
-        <v>318</v>
+        <v>441</v>
       </c>
       <c r="B10" s="30">
         <v>44701</v>
@@ -11763,7 +11763,7 @@
         <v>2036.93</v>
       </c>
       <c r="H10" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I10" t="s" s="32">
         <v>964</v>
@@ -11771,7 +11771,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="29">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B11" s="30">
         <v>44701</v>
@@ -11786,7 +11786,7 @@
         <v>2036.93</v>
       </c>
       <c r="H11" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I11" t="s" s="32">
         <v>965</v>
@@ -11794,7 +11794,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="29">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B12" s="30">
         <v>44701</v>
@@ -11809,7 +11809,7 @@
         <v>2203.89</v>
       </c>
       <c r="H12" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I12" t="s" s="32">
         <v>966</v>
@@ -12512,7 +12512,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="35">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B17" s="36">
         <v>44685</v>
@@ -12609,7 +12609,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G21" s="33">
         <v>2504.42</v>
@@ -12816,7 +12816,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="F30" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G30" s="33">
         <v>8020.49</v>
@@ -13402,7 +13402,7 @@
         <v>2465.68</v>
       </c>
       <c r="H2" t="s" s="27">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I2" t="s" s="27">
         <v>1039</v>
@@ -13425,7 +13425,7 @@
         <v>2465.68</v>
       </c>
       <c r="H3" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I3" t="s" s="32">
         <v>1040</v>
@@ -13479,7 +13479,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="29">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B6" s="30">
         <v>44672</v>
@@ -13494,7 +13494,7 @@
         <v>10217.69</v>
       </c>
       <c r="H6" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I6" t="s" s="32">
         <v>1043</v>
@@ -14128,7 +14128,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="35">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B22" s="36">
         <v>44651</v>
@@ -14666,7 +14666,7 @@
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
       <c r="F45" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G45" s="33">
         <v>7419.65</v>
@@ -15186,7 +15186,7 @@
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" t="s" s="29">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B68" s="30">
         <v>44671</v>
@@ -15201,7 +15201,7 @@
         <v>2032.52</v>
       </c>
       <c r="H68" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I68" t="s" s="32">
         <v>1121</v>
@@ -15209,7 +15209,7 @@
     </row>
     <row r="69" ht="20.05" customHeight="1">
       <c r="A69" t="s" s="29">
-        <v>318</v>
+        <v>441</v>
       </c>
       <c r="B69" s="30">
         <v>44671</v>
@@ -15224,7 +15224,7 @@
         <v>2032.52</v>
       </c>
       <c r="H69" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I69" t="s" s="32">
         <v>1122</v>
@@ -15232,7 +15232,7 @@
     </row>
     <row r="70" ht="20.05" customHeight="1">
       <c r="A70" t="s" s="29">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B70" s="30">
         <v>44671</v>
@@ -15247,7 +15247,7 @@
         <v>2199.12</v>
       </c>
       <c r="H70" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I70" t="s" s="32">
         <v>1123</v>
@@ -15505,7 +15505,7 @@
         <v>9841.18</v>
       </c>
       <c r="H5" t="s" s="32">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I5" t="s" s="32">
         <v>1132</v>
@@ -15528,7 +15528,7 @@
         <v>25000</v>
       </c>
       <c r="H6" t="s" s="32">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I6" t="s" s="32">
         <v>1133</v>
@@ -15605,7 +15605,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="29">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B10" s="30">
         <v>44640</v>
@@ -15620,7 +15620,7 @@
         <v>2019.61</v>
       </c>
       <c r="H10" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I10" t="s" s="32">
         <v>1137</v>
@@ -15628,7 +15628,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="29">
-        <v>318</v>
+        <v>441</v>
       </c>
       <c r="B11" s="30">
         <v>44640</v>
@@ -15643,7 +15643,7 @@
         <v>2019.61</v>
       </c>
       <c r="H11" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I11" t="s" s="32">
         <v>1138</v>
@@ -15651,7 +15651,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="29">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B12" s="30">
         <v>44640</v>
@@ -15666,7 +15666,7 @@
         <v>2185.15</v>
       </c>
       <c r="H12" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I12" t="s" s="32">
         <v>1139</v>
@@ -15735,7 +15735,7 @@
         <v>2450.03</v>
       </c>
       <c r="H15" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I15" t="s" s="32">
         <v>1142</v>
@@ -15758,7 +15758,7 @@
         <v>2450.03</v>
       </c>
       <c r="H16" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I16" t="s" s="32">
         <v>1143</v>
@@ -15835,7 +15835,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="29">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B20" s="30">
         <v>44641</v>
@@ -15850,7 +15850,7 @@
         <v>9605.02</v>
       </c>
       <c r="H20" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I20" t="s" s="32">
         <v>1147</v>
@@ -17459,7 +17459,7 @@
       <c r="D56" s="31"/>
       <c r="E56" s="31"/>
       <c r="F56" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G56" s="33">
         <v>7693.17</v>
@@ -18022,7 +18022,7 @@
         <v>4919.51</v>
       </c>
       <c r="H16" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I16" t="s" s="32">
         <v>1242</v>
@@ -18053,7 +18053,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="29">
-        <v>318</v>
+        <v>441</v>
       </c>
       <c r="B18" s="30">
         <v>44613</v>
@@ -18068,7 +18068,7 @@
         <v>2036.21</v>
       </c>
       <c r="H18" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I18" t="s" s="32">
         <v>1244</v>
@@ -18076,7 +18076,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="29">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B19" s="30">
         <v>44613</v>
@@ -18091,7 +18091,7 @@
         <v>2036.21</v>
       </c>
       <c r="H19" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I19" t="s" s="32">
         <v>1245</v>
@@ -18099,7 +18099,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="29">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B20" s="30">
         <v>44613</v>
@@ -18114,7 +18114,7 @@
         <v>2203.1</v>
       </c>
       <c r="H20" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I20" t="s" s="32">
         <v>1246</v>
@@ -19408,7 +19408,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="35">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B20" s="36">
         <v>44593</v>
@@ -19469,7 +19469,7 @@
         <v>2486.84</v>
       </c>
       <c r="H22" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I22" t="s" s="32">
         <v>1282</v>
@@ -19492,7 +19492,7 @@
         <v>2486.84</v>
       </c>
       <c r="H23" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I23" t="s" s="32">
         <v>1283</v>
@@ -19515,7 +19515,7 @@
         <v>2486.84</v>
       </c>
       <c r="H24" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I24" t="s" s="32">
         <v>1284</v>
@@ -19946,7 +19946,7 @@
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
       <c r="F43" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G43" s="51">
         <v>7487.06</v>
@@ -20044,7 +20044,7 @@
         <v>4919.51</v>
       </c>
       <c r="H47" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I47" t="s" s="32">
         <v>1308</v>
@@ -20075,7 +20075,7 @@
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" t="s" s="29">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B49" s="30">
         <v>44602</v>
@@ -20090,7 +20090,7 @@
         <v>19467.27</v>
       </c>
       <c r="H49" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I49" t="s" s="32">
         <v>1310</v>
@@ -20586,7 +20586,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="29">
-        <v>318</v>
+        <v>441</v>
       </c>
       <c r="B17" s="30">
         <v>44581</v>
@@ -20601,7 +20601,7 @@
         <v>2019.05</v>
       </c>
       <c r="H17" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I17" t="s" s="32">
         <v>1332</v>
@@ -20609,7 +20609,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="29">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B18" s="30">
         <v>44581</v>
@@ -20624,7 +20624,7 @@
         <v>2019.05</v>
       </c>
       <c r="H18" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I18" t="s" s="32">
         <v>1333</v>
@@ -20655,7 +20655,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="29">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B20" s="30">
         <v>44581</v>
@@ -20670,7 +20670,7 @@
         <v>2184.56</v>
       </c>
       <c r="H20" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I20" t="s" s="32">
         <v>1335</v>
@@ -21442,7 +21442,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="35">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B21" s="36">
         <v>44559</v>
@@ -21612,7 +21612,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
       <c r="F28" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G28" s="33">
         <v>7609.59</v>
@@ -21687,7 +21687,7 @@
         <v>2465.89</v>
       </c>
       <c r="H31" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I31" t="s" s="32">
         <v>1375</v>
@@ -21710,7 +21710,7 @@
         <v>2465.89</v>
       </c>
       <c r="H32" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I32" t="s" s="32">
         <v>1376</v>
@@ -21733,7 +21733,7 @@
         <v>2465.89</v>
       </c>
       <c r="H33" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I33" t="s" s="32">
         <v>1377</v>
@@ -22436,7 +22436,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="35">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B8" s="36">
         <v>44545</v>
@@ -22643,7 +22643,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="29">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B17" s="30">
         <v>44550</v>
@@ -22658,7 +22658,7 @@
         <v>1983.01</v>
       </c>
       <c r="H17" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I17" t="s" s="32">
         <v>1419</v>
@@ -22666,7 +22666,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="29">
-        <v>318</v>
+        <v>441</v>
       </c>
       <c r="B18" s="30">
         <v>44550</v>
@@ -22681,7 +22681,7 @@
         <v>1983.01</v>
       </c>
       <c r="H18" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I18" t="s" s="32">
         <v>1420</v>
@@ -22712,7 +22712,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="29">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B20" s="30">
         <v>44550</v>
@@ -22727,7 +22727,7 @@
         <v>2145.55</v>
       </c>
       <c r="H20" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I20" t="s" s="32">
         <v>1422</v>
@@ -22934,7 +22934,7 @@
         <v>2405.61</v>
       </c>
       <c r="H29" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I29" t="s" s="32">
         <v>1433</v>
@@ -22957,7 +22957,7 @@
         <v>2405.61</v>
       </c>
       <c r="H30" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I30" t="s" s="32">
         <v>1434</v>
@@ -23080,7 +23080,7 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="29">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B36" s="30">
         <v>44552</v>
@@ -23095,7 +23095,7 @@
         <v>10049.79</v>
       </c>
       <c r="H36" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I36" t="s" s="32">
         <v>1440</v>
@@ -23307,7 +23307,7 @@
         <v>2421.88</v>
       </c>
       <c r="H5" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I5" t="s" s="32">
         <v>1448</v>
@@ -23330,7 +23330,7 @@
         <v>2421.88</v>
       </c>
       <c r="H6" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I6" t="s" s="32">
         <v>1449</v>
@@ -23353,7 +23353,7 @@
         <v>2421.88</v>
       </c>
       <c r="H7" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I7" t="s" s="32">
         <v>1450</v>
@@ -23692,7 +23692,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
       <c r="F22" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G22" s="33">
         <v>7213.88</v>
@@ -23899,7 +23899,7 @@
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
       <c r="F31" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G31" s="33">
         <v>7072.34</v>
@@ -24324,7 +24324,7 @@
         <v>2366.18</v>
       </c>
       <c r="H2" t="s" s="27">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I2" t="s" s="27">
         <v>1497</v>
@@ -24347,7 +24347,7 @@
         <v>2366.18</v>
       </c>
       <c r="H3" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I3" t="s" s="32">
         <v>1498</v>
@@ -24387,7 +24387,7 @@
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G5" s="33">
         <v>6312.58</v>
@@ -24424,7 +24424,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="29">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B7" s="30">
         <v>44509</v>
@@ -24439,7 +24439,7 @@
         <v>9357.370000000001</v>
       </c>
       <c r="H7" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I7" t="s" s="32">
         <v>1502</v>
@@ -24554,7 +24554,7 @@
         <v>9541.73</v>
       </c>
       <c r="H12" t="s" s="32">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I12" t="s" s="32">
         <v>1507</v>
@@ -24577,7 +24577,7 @@
         <v>22890.6</v>
       </c>
       <c r="H13" t="s" s="32">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I13" t="s" s="32">
         <v>1508</v>
@@ -25344,7 +25344,7 @@
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="29">
-        <v>318</v>
+        <v>441</v>
       </c>
       <c r="B47" s="30">
         <v>44522</v>
@@ -25359,7 +25359,7 @@
         <v>1950.51</v>
       </c>
       <c r="H47" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I47" t="s" s="32">
         <v>1539</v>
@@ -25367,7 +25367,7 @@
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="29">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B48" s="30">
         <v>44522</v>
@@ -25382,7 +25382,7 @@
         <v>1950.51</v>
       </c>
       <c r="H48" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I48" t="s" s="32">
         <v>1540</v>
@@ -25390,7 +25390,7 @@
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" t="s" s="29">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B49" s="30">
         <v>44522</v>
@@ -25405,7 +25405,7 @@
         <v>2110.38</v>
       </c>
       <c r="H49" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I49" t="s" s="32">
         <v>1541</v>
@@ -25924,7 +25924,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="35">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B17" s="36">
         <v>44498</v>
@@ -26910,7 +26910,7 @@
         <v>2379.04</v>
       </c>
       <c r="H10" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I10" t="s" s="32">
         <v>1603</v>
@@ -26933,7 +26933,7 @@
         <v>2379.04</v>
       </c>
       <c r="H11" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I11" t="s" s="32">
         <v>1604</v>
@@ -27010,7 +27010,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="29">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B15" s="30">
         <v>44489</v>
@@ -27025,7 +27025,7 @@
         <v>9987.77</v>
       </c>
       <c r="H15" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I15" t="s" s="32">
         <v>1609</v>
@@ -28308,7 +28308,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="29">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B32" s="30">
         <v>44473</v>
@@ -28409,7 +28409,7 @@
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
       <c r="F36" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G36" s="33">
         <v>7495.81</v>
@@ -29707,7 +29707,7 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" t="s" s="27">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G2" s="28">
         <v>6480.38</v>
@@ -30311,7 +30311,7 @@
         <v>77.84999999999999</v>
       </c>
       <c r="H28" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I28" t="s" s="32">
         <v>1706</v>
@@ -30334,7 +30334,7 @@
         <v>77.84999999999999</v>
       </c>
       <c r="H29" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I29" t="s" s="32">
         <v>1707</v>
@@ -30357,7 +30357,7 @@
         <v>2367.47</v>
       </c>
       <c r="H30" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I30" t="s" s="32">
         <v>1708</v>
@@ -30380,7 +30380,7 @@
         <v>2367.47</v>
       </c>
       <c r="H31" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I31" t="s" s="32">
         <v>1709</v>
@@ -30411,7 +30411,7 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="29">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B33" s="30">
         <v>44459</v>
@@ -30426,7 +30426,7 @@
         <v>8682.209999999999</v>
       </c>
       <c r="H33" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I33" t="s" s="32">
         <v>1711</v>
@@ -30922,7 +30922,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="29">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B12" s="30">
         <v>44439</v>
@@ -32032,7 +32032,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="29">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B8" s="30">
         <v>44411</v>
@@ -32047,7 +32047,7 @@
         <v>19601.43</v>
       </c>
       <c r="H8" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I8" t="s" s="32">
         <v>1768</v>
@@ -32170,7 +32170,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="83">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B14" s="84">
         <v>44412</v>
@@ -32432,7 +32432,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="F25" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G25" s="53">
         <v>6556.7</v>
@@ -37087,7 +37087,7 @@
         <v>2397.37</v>
       </c>
       <c r="H4" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I4" t="s" s="32">
         <v>1872</v>
@@ -37110,7 +37110,7 @@
         <v>2397.37</v>
       </c>
       <c r="H5" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I5" t="s" s="32">
         <v>1873</v>
@@ -37118,7 +37118,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="29">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B6" s="30">
         <v>44376</v>
@@ -37133,7 +37133,7 @@
         <v>9494.49</v>
       </c>
       <c r="H6" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I6" t="s" s="32">
         <v>1874</v>
@@ -37271,7 +37271,7 @@
         <v>4649.51</v>
       </c>
       <c r="H12" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I12" t="s" s="32">
         <v>1878</v>
@@ -37294,7 +37294,7 @@
         <v>4649.51</v>
       </c>
       <c r="H13" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I13" t="s" s="32">
         <v>1879</v>
@@ -37371,7 +37371,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="29">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B17" s="30">
         <v>44378</v>
@@ -37840,7 +37840,7 @@
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
       <c r="F37" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G37" s="51">
         <v>6985.72</v>
@@ -38738,7 +38738,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="117">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B14" s="118">
         <v>44354</v>
@@ -38793,7 +38793,7 @@
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="33">
         <v>2364.97</v>
@@ -38816,7 +38816,7 @@
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G17" s="33">
         <v>2364.97</v>
@@ -38839,7 +38839,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
       <c r="F18" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G18" s="33">
         <v>2381.18</v>
@@ -38931,7 +38931,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
       <c r="F22" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G22" s="33">
         <v>7164.93</v>
@@ -39987,7 +39987,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="139">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B2" s="140">
         <v>44321</v>
@@ -40035,7 +40035,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="133">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B5" s="129">
         <v>44323</v>
@@ -41571,7 +41571,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="29">
-        <v>318</v>
+        <v>441</v>
       </c>
       <c r="B13" s="30">
         <v>44837</v>
@@ -41586,15 +41586,15 @@
         <v>2007.43</v>
       </c>
       <c r="H13" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I13" t="s" s="32">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="29">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B14" s="30">
         <v>44837</v>
@@ -41609,15 +41609,15 @@
         <v>2007.43</v>
       </c>
       <c r="H14" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I14" t="s" s="32">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="29">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B15" s="30">
         <v>44837</v>
@@ -41632,10 +41632,10 @@
         <v>2171.96</v>
       </c>
       <c r="H15" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I15" t="s" s="32">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -41658,7 +41658,7 @@
         <v>221</v>
       </c>
       <c r="I16" t="s" s="32">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
@@ -41681,7 +41681,7 @@
         <v>221</v>
       </c>
       <c r="I17" t="s" s="32">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" ht="32.05" customHeight="1">
@@ -41701,10 +41701,10 @@
         <v>2451.71</v>
       </c>
       <c r="H18" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I18" t="s" s="32">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" ht="32.05" customHeight="1">
@@ -41724,10 +41724,10 @@
         <v>2451.71</v>
       </c>
       <c r="H19" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I19" t="s" s="32">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
@@ -41750,7 +41750,7 @@
         <v>235</v>
       </c>
       <c r="I20" t="s" s="32">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -41773,7 +41773,7 @@
         <v>240</v>
       </c>
       <c r="I21" t="s" s="32">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -41796,7 +41796,7 @@
         <v>221</v>
       </c>
       <c r="I22" t="s" s="32">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" ht="32.05" customHeight="1">
@@ -41816,10 +41816,10 @@
         <v>6846.7</v>
       </c>
       <c r="H23" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I23" t="s" s="32">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
@@ -41833,7 +41833,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G24" s="33">
         <v>7593.3</v>
@@ -41842,7 +41842,7 @@
         <v>133</v>
       </c>
       <c r="I24" t="s" s="32">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -41862,10 +41862,10 @@
         <v>9255.77</v>
       </c>
       <c r="H25" t="s" s="32">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I25" t="s" s="32">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" ht="32.05" customHeight="1">
@@ -41885,15 +41885,15 @@
         <v>9297.559999999999</v>
       </c>
       <c r="H26" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I26" t="s" s="32">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="29">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B27" s="30">
         <v>44837</v>
@@ -41908,10 +41908,10 @@
         <v>10479.98</v>
       </c>
       <c r="H27" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I27" t="s" s="32">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" ht="21.35" customHeight="1">
@@ -41934,12 +41934,12 @@
         <v>316</v>
       </c>
       <c r="I28" t="s" s="38">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" ht="21.35" customHeight="1">
       <c r="A29" t="s" s="35">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B29" s="36">
         <v>44837</v>
@@ -41973,7 +41973,7 @@
         <v>25000</v>
       </c>
       <c r="H30" t="s" s="32">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I30" t="s" s="32">
         <v>467</v>
@@ -43706,7 +43706,7 @@
     </row>
     <row r="11" ht="25.35" customHeight="1">
       <c r="A11" t="s" s="194">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B11" s="189">
         <v>44287</v>
@@ -45008,7 +45008,7 @@
     </row>
     <row r="27" ht="25.35" customHeight="1">
       <c r="A27" t="s" s="216">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B27" s="189">
         <v>44260</v>
@@ -45456,7 +45456,7 @@
     </row>
     <row r="55" ht="25.35" customHeight="1">
       <c r="A55" t="s" s="216">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B55" s="189">
         <v>44266</v>
@@ -46138,7 +46138,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G20" s="33">
         <v>5646.71</v>
@@ -46451,7 +46451,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="29">
-        <v>318</v>
+        <v>441</v>
       </c>
       <c r="B34" s="30">
         <v>44824</v>
@@ -46466,7 +46466,7 @@
         <v>3961</v>
       </c>
       <c r="H34" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I34" t="s" s="32">
         <v>558</v>
@@ -46474,7 +46474,7 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="29">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B35" s="30">
         <v>44824</v>
@@ -46489,7 +46489,7 @@
         <v>3961</v>
       </c>
       <c r="H35" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I35" t="s" s="32">
         <v>559</v>
@@ -46497,7 +46497,7 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="29">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B36" s="30">
         <v>44824</v>
@@ -46512,7 +46512,7 @@
         <v>4121.74</v>
       </c>
       <c r="H36" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I36" t="s" s="32">
         <v>560</v>
@@ -46535,7 +46535,7 @@
         <v>4378.91</v>
       </c>
       <c r="H37" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I37" t="s" s="32">
         <v>562</v>
@@ -46558,7 +46558,7 @@
         <v>4378.91</v>
       </c>
       <c r="H38" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I38" t="s" s="32">
         <v>564</v>
@@ -46589,7 +46589,7 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="35">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B40" s="36">
         <v>44824</v>
@@ -47129,7 +47129,7 @@
     </row>
     <row r="11" ht="25.35" customHeight="1">
       <c r="A11" t="s" s="128">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B11" s="174">
         <v>44243</v>
@@ -47865,7 +47865,7 @@
     </row>
     <row r="21" ht="25.35" customHeight="1">
       <c r="A21" t="s" s="128">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B21" s="174">
         <v>44230</v>
@@ -48329,7 +48329,7 @@
     </row>
     <row r="50" ht="25.35" customHeight="1">
       <c r="A50" t="s" s="128">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B50" s="174">
         <v>44235</v>
@@ -50356,7 +50356,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="261">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B10" s="259">
         <v>44180</v>
@@ -50933,7 +50933,7 @@
         <v>4394.99</v>
       </c>
       <c r="H10" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I10" t="s" s="32">
         <v>605</v>
@@ -50956,7 +50956,7 @@
         <v>4394.99</v>
       </c>
       <c r="H11" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I11" t="s" s="32">
         <v>606</v>
@@ -51163,7 +51163,7 @@
         <v>2392.89</v>
       </c>
       <c r="H20" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I20" t="s" s="32">
         <v>622</v>
@@ -51186,7 +51186,7 @@
         <v>2392.89</v>
       </c>
       <c r="H21" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I21" t="s" s="32">
         <v>623</v>
@@ -51217,7 +51217,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="29">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B23" s="30">
         <v>44805</v>
@@ -51232,7 +51232,7 @@
         <v>7367.04</v>
       </c>
       <c r="H23" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I23" t="s" s="32">
         <v>625</v>
@@ -51240,7 +51240,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="29">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B24" s="30">
         <v>44805</v>
@@ -51255,7 +51255,7 @@
         <v>7607.72</v>
       </c>
       <c r="H24" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I24" t="s" s="32">
         <v>626</v>
@@ -52514,7 +52514,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="269">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B17" s="101">
         <v>44138</v>
@@ -52529,7 +52529,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="269">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B18" s="101">
         <v>44138</v>
@@ -53116,7 +53116,7 @@
         <v>2409.07</v>
       </c>
       <c r="H15" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I15" t="s" s="32">
         <v>677</v>
@@ -53139,7 +53139,7 @@
         <v>2409.07</v>
       </c>
       <c r="H16" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I16" t="s" s="32">
         <v>678</v>
@@ -53162,7 +53162,7 @@
         <v>2409.07</v>
       </c>
       <c r="H17" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I17" t="s" s="32">
         <v>679</v>
@@ -53515,7 +53515,7 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="35">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B33" s="36">
         <v>44778</v>
@@ -53886,7 +53886,7 @@
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
       <c r="F49" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G49" s="33">
         <v>6033.73</v>
@@ -54176,7 +54176,7 @@
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="29">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B62" s="30">
         <v>44792</v>
@@ -54191,7 +54191,7 @@
         <v>1972.52</v>
       </c>
       <c r="H62" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I62" t="s" s="32">
         <v>736</v>
@@ -54199,7 +54199,7 @@
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="29">
-        <v>318</v>
+        <v>441</v>
       </c>
       <c r="B63" s="30">
         <v>44792</v>
@@ -54214,7 +54214,7 @@
         <v>1972.52</v>
       </c>
       <c r="H63" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I63" t="s" s="32">
         <v>737</v>
@@ -54222,7 +54222,7 @@
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="29">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B64" s="30">
         <v>44792</v>
@@ -54237,7 +54237,7 @@
         <v>2134.2</v>
       </c>
       <c r="H64" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I64" t="s" s="32">
         <v>738</v>
@@ -54817,7 +54817,7 @@
         <v>2450.66</v>
       </c>
       <c r="H9" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I9" t="s" s="32">
         <v>765</v>
@@ -54840,7 +54840,7 @@
         <v>2450.66</v>
       </c>
       <c r="H10" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I10" t="s" s="32">
         <v>766</v>
@@ -54863,7 +54863,7 @@
         <v>2450.66</v>
       </c>
       <c r="H11" t="s" s="32">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I11" t="s" s="32">
         <v>767</v>
@@ -55116,7 +55116,7 @@
         <v>4856.28</v>
       </c>
       <c r="H22" t="s" s="32">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I22" t="s" s="32">
         <v>780</v>
@@ -55162,7 +55162,7 @@
         <v>10000</v>
       </c>
       <c r="H24" t="s" s="32">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I24" t="s" s="32">
         <v>782</v>
@@ -55331,7 +55331,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="35">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="B32" s="36">
         <v>44746</v>
@@ -55800,7 +55800,7 @@
       <c r="D52" s="31"/>
       <c r="E52" s="31"/>
       <c r="F52" t="s" s="32">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G52" s="33">
         <v>7095.32</v>
@@ -55944,7 +55944,7 @@
         <v>2434.22</v>
       </c>
       <c r="H58" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I58" t="s" s="32">
         <v>819</v>
@@ -55967,7 +55967,7 @@
         <v>2434.22</v>
       </c>
       <c r="H59" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I59" t="s" s="32">
         <v>820</v>
@@ -55975,7 +55975,7 @@
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="29">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B60" s="30">
         <v>44755</v>
@@ -55990,7 +55990,7 @@
         <v>7620.35</v>
       </c>
       <c r="H60" t="s" s="32">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I60" t="s" s="32">
         <v>821</v>
@@ -56550,7 +56550,7 @@
     </row>
     <row r="85" ht="20.05" customHeight="1">
       <c r="A85" t="s" s="29">
-        <v>318</v>
+        <v>441</v>
       </c>
       <c r="B85" s="30">
         <v>44762</v>
@@ -56565,7 +56565,7 @@
         <v>2006.59</v>
       </c>
       <c r="H85" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I85" t="s" s="32">
         <v>848</v>
@@ -56619,7 +56619,7 @@
     </row>
     <row r="88" ht="20.05" customHeight="1">
       <c r="A88" t="s" s="29">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B88" s="30">
         <v>44762</v>
@@ -56634,7 +56634,7 @@
         <v>2006.59</v>
       </c>
       <c r="H88" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I88" t="s" s="32">
         <v>851</v>
@@ -56642,7 +56642,7 @@
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" t="s" s="29">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B89" s="30">
         <v>44762</v>
@@ -56657,7 +56657,7 @@
         <v>2171.06</v>
       </c>
       <c r="H89" t="s" s="32">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I89" t="s" s="32">
         <v>852</v>
